--- a/data/trans_bre/P25A_8_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25A_8_R2-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +584,42 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,92</t>
+          <t>3,71</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,96</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,83</t>
+          <t>3,13</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>17,8</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>116,8%</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>306,15%</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>154,86%</t>
+          <t>180,05%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>210,79%</t>
+          <t>323,1%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>177,46%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>129,08%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>31,51%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>48,8%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 7,77</t>
+          <t>-0,69; 8,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,63; 7,95</t>
+          <t>0,6; 8,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 6,82</t>
+          <t>-1,28; 7,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 43,01</t>
+          <t>-1,86; 7,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-67,33; 1012,96</t>
+          <t>-4,78; 7,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-38,66; —</t>
+          <t>-4,26; 5,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-75,49; —</t>
+          <t>-40,5; 1370,28</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-67,08; —</t>
+          <t>-35,04; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-62,52; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-59,3; 256,77</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-71,81; 602,73</t>
         </is>
       </c>
     </row>
@@ -725,37 +797,57 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,89</t>
+          <t>3,83</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>101,65%</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>32,68%</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,54%</t>
+          <t>104,65%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>97,11%</t>
+          <t>26,16%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-2,35%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>226,25%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>24,5%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>9,12%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 8,88</t>
+          <t>-0,94; 9,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 4,28</t>
+          <t>-3,19; 4,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 5,24</t>
+          <t>-5,27; 4,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-10,15; 24,74</t>
+          <t>-0,09; 8,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-30,54; 532,43</t>
+          <t>-5,29; 9,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-69,43; 428,19</t>
+          <t>-7,29; 6,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-53,25; 145,11</t>
+          <t>-25,03; 560,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-53,45; —</t>
+          <t>-66,23; 381,18</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-58,06; 141,1</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-41,18; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-43,44; 180,64</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-53,1; 118,49</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,76</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-5,53</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-6,86%</t>
+          <t>3,76</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>59,42%</t>
+          <t>5,78</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>84,27%</t>
+          <t>-12,14%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-23,02%</t>
+          <t>61,98%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>83,26%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-12,03%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>58,37%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>135,69%</t>
         </is>
       </c>
     </row>
@@ -868,42 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 2,55</t>
+          <t>-3,88; 2,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 4,6</t>
+          <t>-1,18; 4,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 6,13</t>
+          <t>-0,21; 5,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-22,02; 11,3</t>
+          <t>-4,4; 3,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-72,16; 149,06</t>
+          <t>-2,04; 9,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-27,79; 256,1</t>
+          <t>1,3; 10,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-14,25; 308,22</t>
+          <t>-69,74; 137,84</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-63,84; 88,17</t>
+          <t>-32,73; 296,1</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-8,35; 327,41</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-64,53; 137,19</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-24,37; 248,14</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>17,23; 419,1</t>
         </is>
       </c>
     </row>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14,67</t>
+          <t>3,43</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>62,14%</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>13,34%</t>
+          <t>4,79</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>54,42%</t>
+          <t>54,87%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>93,43%</t>
+          <t>18,34%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>57,84%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>118,41%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>16,82%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>98,48%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 4,97</t>
+          <t>-2,72; 4,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 3,39</t>
+          <t>-2,25; 3,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 5,62</t>
+          <t>-1,25; 4,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 32,72</t>
+          <t>-0,41; 7,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-59,6; 330,37</t>
+          <t>-3,89; 6,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-51,98; 152,77</t>
+          <t>0,1; 9,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-21,51; 286,61</t>
+          <t>-59,24; 303,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-28,27; 493,12</t>
+          <t>-45,63; 165,46</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-24,87; 220,42</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-17,42; 540,33</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-39,89; 127,38</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-2,35; 269,3</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1212,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>3,49</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>10,15</t>
+          <t>5,78</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>402,49%</t>
+          <t>5,65</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-21,73%</t>
+          <t>6,66</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>36,73%</t>
+          <t>373,48%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>42,98%</t>
+          <t>-14,79%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>34,86%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>165,57%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>163,95%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>398,52%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1280,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,81; 6,37</t>
+          <t>0,99; 7,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 1,86</t>
+          <t>-2,73; 1,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 4,16</t>
+          <t>-4,05; 4,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-12,6; 27,31</t>
+          <t>1,05; 10,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-23,32; —</t>
+          <t>1,01; 10,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-80,53; 245,39</t>
+          <t>2,44; 12,17</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-75,31; 294,46</t>
+          <t>-25,21; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-35,13; 233,59</t>
+          <t>-83,98; 215,1</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-71,49; 328,16</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>3,66; 678,44</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>2,73; 667,29</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>41,11; 1802,24</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1352,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,63</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,52</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>132,09%</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>96,69%</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>66,91%</t>
+          <t>124,62%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-2,66%</t>
+          <t>64,14%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>88,25%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>44,98%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>105,37%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>58,47%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1420,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 2,44</t>
+          <t>-1,15; 2,99</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 4,81</t>
+          <t>-1,7; 4,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 6,09</t>
+          <t>-1,78; 10,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-35,66; 29,87</t>
+          <t>-3,59; 6,3</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>-2,08; 7,54</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-2,64; 9,87</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-50,67; 852,06</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-60,92; 753,65</t>
-        </is>
-      </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-88,15; 475,1</t>
+          <t>-60,39; 611,35</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-64,46; 1612,66</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-59,1; 1056,59</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-37,52; 329,12</t>
         </is>
       </c>
     </row>
@@ -1220,7 +1492,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>1,82</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1230,32 +1502,52 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>8,18</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>72,05%</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>53,08%</t>
+          <t>3,95</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>49,78%</t>
+          <t>75,0%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>46,86%</t>
+          <t>53,73%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>53,33%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>83,79%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>44,05%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>80,41%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1560,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,25; 3,11</t>
+          <t>0,23; 3,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,2; 2,52</t>
+          <t>0,14; 2,63</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 3,29</t>
+          <t>0,22; 3,86</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 15,81</t>
+          <t>0,74; 4,3</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,85; 172,94</t>
+          <t>0,35; 4,81</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,35; 123,76</t>
+          <t>1,83; 6,37</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 118,13</t>
+          <t>2,44; 182,14</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 127,49</t>
+          <t>3,03; 128,05</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1,56; 139,03</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>15,13; 187,81</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>4,7; 104,68</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>30,05; 160,62</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,13 +1631,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
